--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail10 Features.xlsx
@@ -3480,7 +3480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,29 +3491,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3534,115 +3532,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3659,72 +3647,66 @@
         <v>6.840079299791272e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1643031528230487</v>
+        <v>2.406357932217682e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.223170927922233</v>
+        <v>1.377312866209279e-05</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.406357932217682e-06</v>
+        <v>-0.05858007332084709</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.377312866209279e-05</v>
+        <v>0.1429078676209391</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.05858007332084709</v>
+        <v>0.02384056629272173</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1429078676209391</v>
+        <v>1.743947262085005</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02384056629272173</v>
+        <v>1.666549180860371</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.672327708623674</v>
+        <v>4.162674306815415</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.666549180860371</v>
+        <v>4.2962191656941e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.162674306815415</v>
+        <v>17893168.47094444</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.2962191656941e-14</v>
+        <v>6.448106247123685e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>17893168.47094444</v>
+        <v>13.75501062474759</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.448106247123685e-06</v>
+        <v>0.0001153653773795818</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>13.75501062474759</v>
+        <v>9.584686108513514</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001153653773795818</v>
+        <v>1.178038857959935</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.584686108513514</v>
+        <v>0.01059817973113179</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.178038857959935</v>
+        <v>3.056821578191234</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01059817973113179</v>
+        <v>0.9568861034505889</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.056821578191234</v>
+        <v>1.737955996841262</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9568861034505889</v>
+        <v>12</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.737955996841262</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2200635903178058</v>
       </c>
     </row>
@@ -3739,72 +3721,66 @@
         <v>6.761685563524075e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1758687926788076</v>
+        <v>2.155922428026239e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.235520470742408</v>
+        <v>1.373555007740581e-05</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.155922428026239e-06</v>
+        <v>-0.05232797289708108</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.373555007740581e-05</v>
+        <v>0.1391405278221731</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.05232797289708108</v>
+        <v>0.02209324035911452</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1391405278221731</v>
+        <v>1.738921340252265</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02209324035911452</v>
+        <v>1.613529736808449</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.672629934210401</v>
+        <v>4.143108830967183</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.613529736808449</v>
+        <v>4.854023648976305e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.143108830967183</v>
+        <v>15441490.15979149</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.854023648976305e-14</v>
+        <v>7.429967196587267e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>15441490.15979149</v>
+        <v>11.57391546347751</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.429967196587267e-06</v>
+        <v>0.0001137587278740345</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>11.57391546347751</v>
+        <v>8.127207770685649</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001137587278740345</v>
+        <v>1.209173612587319</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.127207770685649</v>
+        <v>0.007513935313548298</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.209173612587319</v>
+        <v>3.128325650916628</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.007513935313548298</v>
+        <v>0.9559647957518589</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.128325650916628</v>
+        <v>1.752816140084043</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9559647957518589</v>
+        <v>12</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.752816140084043</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2139094432209481</v>
       </c>
     </row>
@@ -3819,72 +3795,66 @@
         <v>6.709716542011109e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2144483346613251</v>
+        <v>2.12912744470758e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.212226826728953</v>
+        <v>1.370195663754163e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.12912744470758e-06</v>
+        <v>-0.04772486668176133</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.370195663754163e-05</v>
+        <v>0.1398997387028271</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04772486668176133</v>
+        <v>0.02184804447524947</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1398997387028271</v>
+        <v>1.699889123596615</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02184804447524947</v>
+        <v>1.59036469551263</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.631246392754977</v>
+        <v>4.07877754718928</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.59036469551263</v>
+        <v>5.127572926806122e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.07877754718928</v>
+        <v>15098073.09011826</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.127572926806122e-14</v>
+        <v>7.488872635218365e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>15098073.09011826</v>
+        <v>11.688395348772</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.488872635218365e-06</v>
+        <v>0.0001138986838464274</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>11.688395348772</v>
+        <v>7.407923394786968</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001138986838464274</v>
+        <v>1.318100168241603</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.407923394786968</v>
+        <v>0.006250455548730706</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.318100168241603</v>
+        <v>3.179577532853619</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006250455548730706</v>
+        <v>0.9558591449635624</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.179577532853619</v>
+        <v>1.75596751366685</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9558591449635624</v>
+        <v>13</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.75596751366685</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2072694510844616</v>
       </c>
     </row>
@@ -3899,72 +3869,66 @@
         <v>6.653792579412976e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2655925408869913</v>
+        <v>2.12912744470758e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.172926837471731</v>
+        <v>1.367106244983588e-05</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.12912744470758e-06</v>
+        <v>-0.04495406179437817</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.367106244983588e-05</v>
+        <v>0.1420171508700076</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04495406179437817</v>
+        <v>0.02218919621337954</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1420171508700076</v>
+        <v>1.66813992860706</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02218919621337954</v>
+        <v>1.576323057325885</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.591183879278868</v>
+        <v>3.968902025926872</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.576323057325885</v>
+        <v>5.415407338224606e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.968902025926872</v>
+        <v>13798169.59351713</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.415407338224606e-14</v>
+        <v>8.083162840758029e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>13798169.59351713</v>
+        <v>10.3103660948631</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.083162840758029e-06</v>
+        <v>0.0001217451194590542</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>10.3103660948631</v>
+        <v>7.979637678765579</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001217451194590542</v>
+        <v>1.618222080889597</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.979637678765579</v>
+        <v>0.007752073912144854</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.618222080889597</v>
+        <v>3.199395243298089</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007752073912144854</v>
+        <v>0.9562487172022334</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.199395243298089</v>
+        <v>1.815216911199207</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9562487172022334</v>
+        <v>13</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.815216911199207</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2013496187006381</v>
       </c>
     </row>
@@ -3979,72 +3943,66 @@
         <v>6.589548089794293e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3231205198233144</v>
+        <v>2.12912744470758e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.118694523348262</v>
+        <v>1.36419560054089e-05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.12912744470758e-06</v>
+        <v>-0.04298967488864661</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.36419560054089e-05</v>
+        <v>0.1438701975760938</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04298967488864661</v>
+        <v>0.02254610723339761</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1438701975760938</v>
+        <v>1.663852752471626</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02254610723339761</v>
+        <v>1.607452494396974</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.585744486959056</v>
+        <v>3.843788286396436</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.607452494396974</v>
+        <v>5.773683428052766e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.843788286396436</v>
+        <v>12837334.39135458</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.773683428052766e-14</v>
+        <v>8.652622752880581e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>12837334.39135458</v>
+        <v>9.5148659863045</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.652622752880581e-06</v>
+        <v>0.0001569738595557081</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>9.5148659863045</v>
+        <v>9.224341733287913</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001569738595557081</v>
+        <v>1.666110997974731</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.224341733287913</v>
+        <v>0.01335666717407679</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.666110997974731</v>
+        <v>3.137801099501038</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01335666717407679</v>
+        <v>0.9564035009543437</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.137801099501038</v>
+        <v>1.80572557090595</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9564035009543437</v>
+        <v>13</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.80572557090595</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1827028939947479</v>
       </c>
     </row>
@@ -4059,72 +4017,66 @@
         <v>6.528086717381819e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.386313443885309</v>
+        <v>2.12912744470758e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.048769904080514</v>
+        <v>1.361453927738723e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.12912744470758e-06</v>
+        <v>-0.04038420896970416</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.361453927738723e-05</v>
+        <v>0.1444851733076412</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04038420896970416</v>
+        <v>0.02250387179787925</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1444851733076412</v>
+        <v>1.652130821511664</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02250387179787925</v>
+        <v>1.568900576384275</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.570451653119378</v>
+        <v>3.840266529513296</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.568900576384275</v>
+        <v>5.784277918162751e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.840266529513296</v>
+        <v>12975713.4963754</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.784277918162751e-14</v>
+        <v>8.522277378190114e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>12975713.4963754</v>
+        <v>9.738939028825268</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.522277378190114e-06</v>
+        <v>0.0001511106947963393</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>9.738939028825268</v>
+        <v>9.750159658422682</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001511106947963393</v>
+        <v>1.353684320438844</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.750159658422682</v>
+        <v>0.01436543088678498</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.353684320438844</v>
+        <v>3.081722726354501</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01436543088678498</v>
+        <v>0.9582876446302877</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.081722726354501</v>
+        <v>1.826957304964302</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9582876446302877</v>
+        <v>13</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.826957304964302</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1835382767567425</v>
       </c>
     </row>
@@ -4139,72 +4091,66 @@
         <v>6.487164638771766e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.4550824847603699</v>
+        <v>2.12912744470758e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.9687941394926671</v>
+        <v>1.358954465835753e-05</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.12912744470758e-06</v>
+        <v>-0.03630041296363819</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.358954465835753e-05</v>
+        <v>0.1428526798177667</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03630041296363819</v>
+        <v>0.0217202013249153</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1428526798177667</v>
+        <v>1.697317975654899</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0217202013249153</v>
+        <v>1.551436607911254</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.617882073301445</v>
+        <v>3.923624278530598</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.551436607911254</v>
+        <v>5.541113669853759e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.923624278530598</v>
+        <v>13089243.75768062</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.541113669853759e-14</v>
+        <v>8.634216215316434e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>13089243.75768062</v>
+        <v>9.493495970650125</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.634216215316434e-06</v>
+        <v>0.0001453705985836673</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>9.493495970650125</v>
+        <v>10.42894859595003</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001453705985836673</v>
+        <v>1.128676534342316</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.42894859595003</v>
+        <v>0.0158109378806594</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.128676534342316</v>
+        <v>2.899728783426714</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0158109378806594</v>
+        <v>0.9581697606042747</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.899728783426714</v>
+        <v>1.762901380391861</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9581697606042747</v>
+        <v>16</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.762901380391861</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1946686601004382</v>
       </c>
     </row>
@@ -4219,72 +4165,66 @@
         <v>6.470682210874089e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.5245932895134111</v>
+        <v>2.12912744470758e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8920064087710413</v>
+        <v>1.356743099396038e-05</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.12912744470758e-06</v>
+        <v>-0.03209534319883216</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.356743099396038e-05</v>
+        <v>0.1404091052322515</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03209534319883216</v>
+        <v>0.02074109986386202</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1404091052322515</v>
+        <v>1.700185256914509</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02074109986386202</v>
+        <v>1.537654621256517</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.621495771824981</v>
+        <v>4.07822776025969</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.537654621256517</v>
+        <v>4.058032242538876e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.07822776025969</v>
+        <v>17778559.50701178</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.058032242538876e-14</v>
+        <v>6.373888475704529e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>17778559.50701178</v>
+        <v>12.82651380040513</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>6.373888475704529e-06</v>
+        <v>0.0001523706399395028</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>12.82651380040513</v>
+        <v>10.69619043336142</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001523706399395028</v>
+        <v>1.124475495290773</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.69619043336142</v>
+        <v>0.01743249480331648</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.124475495290773</v>
+        <v>2.743829230918689</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01743249480331648</v>
+        <v>0.9585641278516475</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.743829230918689</v>
+        <v>1.758064687673405</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9585641278516475</v>
+        <v>16</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.758064687673405</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1941401329206058</v>
       </c>
     </row>
@@ -4661,7 +4601,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.585698254953396</v>
+        <v>1.562198441249138</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.483487146382853</v>
@@ -4750,7 +4690,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.600642492380069</v>
+        <v>1.559248526199934</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.302671269429364</v>
@@ -4839,7 +4779,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.60449282275629</v>
+        <v>1.544688984562665</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.530953237873746</v>
@@ -4928,7 +4868,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.629792701178049</v>
+        <v>1.563931666939273</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.779791424771118</v>
@@ -5017,7 +4957,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.626881839905238</v>
+        <v>1.555969525223874</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.775011617773921</v>
@@ -5106,7 +5046,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.617948953268505</v>
+        <v>1.550663767210525</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.725767120259174</v>
@@ -5195,7 +5135,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.631849759162244</v>
+        <v>1.56074824474652</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.618120191741811</v>
@@ -5284,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.620192036458604</v>
+        <v>1.559791290352973</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.865520344747507</v>
@@ -5373,7 +5313,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.624346783146622</v>
+        <v>1.56438227163396</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.188460745085048</v>
@@ -5462,7 +5402,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.626909626331755</v>
+        <v>1.56201788855689</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.077392452033987</v>
@@ -5551,7 +5491,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.640851385848173</v>
+        <v>1.564985011277025</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.992665659437391</v>
@@ -5640,7 +5580,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.640054011605144</v>
+        <v>1.560503251609341</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.826530945944746</v>
@@ -5729,7 +5669,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.640028636085484</v>
+        <v>1.560254456782162</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.947765177869638</v>
@@ -5818,7 +5758,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.63814652997</v>
+        <v>1.556941543111318</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.987001930772158</v>
@@ -5907,7 +5847,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.654029295026105</v>
+        <v>1.572377104501928</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.828163414063374</v>
@@ -5996,7 +5936,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.647089574181483</v>
+        <v>1.568132150834905</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.864464758595713</v>
@@ -6085,7 +6025,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.642978156489474</v>
+        <v>1.57047540693174</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.020643975224818</v>
@@ -6174,7 +6114,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.646761437774391</v>
+        <v>1.57658610127857</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.880858693906169</v>
@@ -6263,7 +6203,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.655308697582135</v>
+        <v>1.574326929604934</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.775749787551177</v>
@@ -6352,7 +6292,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.655903790361876</v>
+        <v>1.573688354434713</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.817074320153861</v>
@@ -6441,7 +6381,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.650045206371716</v>
+        <v>1.573270003932965</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.931122693565633</v>
@@ -6530,7 +6470,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.652683306051817</v>
+        <v>1.57771937439181</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.615161920270422</v>
@@ -6619,7 +6559,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.661891182263016</v>
+        <v>1.583563256072761</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.982244655045083</v>
@@ -6708,7 +6648,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.65776546845866</v>
+        <v>1.590718560760223</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.037286184414676</v>
@@ -6797,7 +6737,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.65629219133913</v>
+        <v>1.591457601822037</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.915061557620576</v>
@@ -6886,7 +6826,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.64376648928579</v>
+        <v>1.58895896682254</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.757805205772286</v>
@@ -6975,7 +6915,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.648088446217811</v>
+        <v>1.594873460528407</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.813071241663496</v>
@@ -7064,7 +7004,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.643533210580458</v>
+        <v>1.593652346958194</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.886897303753174</v>
@@ -7153,7 +7093,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.664313951454628</v>
+        <v>1.615653945342224</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.321982831470164</v>
@@ -7242,7 +7182,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.664904522724056</v>
+        <v>1.608093243284172</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.904629201380969</v>
@@ -7331,7 +7271,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.669330292532367</v>
+        <v>1.611373898833522</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.072382894373338</v>
@@ -7420,7 +7360,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.683912646753201</v>
+        <v>1.611377752943724</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.843362104104316</v>
@@ -7509,7 +7449,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.672321940546358</v>
+        <v>1.603187080412055</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.11403505206916</v>
@@ -7598,7 +7538,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.660433292687613</v>
+        <v>1.602194729912161</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.15370495795521</v>
@@ -7687,7 +7627,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.657188932331814</v>
+        <v>1.59536702335036</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.917948533326954</v>
@@ -7776,7 +7716,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.673540849984222</v>
+        <v>1.600431102245218</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.851046271477002</v>
@@ -7865,7 +7805,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.690848110178227</v>
+        <v>1.610261089612163</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.062357678726299</v>
@@ -7954,7 +7894,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.697918036634298</v>
+        <v>1.617154584029275</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.601789500388787</v>
@@ -8043,7 +7983,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.718604369984694</v>
+        <v>1.628322406940977</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.21502308305628</v>
@@ -8132,7 +8072,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.716147836599169</v>
+        <v>1.627676462680363</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.087377130943323</v>
@@ -8221,7 +8161,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.725681734724752</v>
+        <v>1.635159328529014</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.906039217868945</v>
@@ -8310,7 +8250,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.713440904473675</v>
+        <v>1.627505166514872</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.228245025907974</v>
@@ -8399,7 +8339,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.729069847356637</v>
+        <v>1.634747730821423</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.151585316635676</v>
@@ -8488,7 +8428,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.729796342516825</v>
+        <v>1.630484655162385</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.311172387773265</v>
@@ -8577,7 +8517,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.730101096818428</v>
+        <v>1.635565106833515</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.438081077535528</v>
@@ -8666,7 +8606,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.730239156251782</v>
+        <v>1.637675001195845</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.424850626811374</v>
@@ -8755,7 +8695,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.724102496300974</v>
+        <v>1.642159008594691</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.292402464233464</v>
@@ -8844,7 +8784,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.747430964903609</v>
+        <v>1.65425669691398</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.843970052504057</v>
@@ -8933,7 +8873,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.729852609922234</v>
+        <v>1.647839609457967</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.214538918486307</v>
@@ -9022,7 +8962,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.726693784935635</v>
+        <v>1.657111346089423</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.232706736099128</v>
@@ -9111,7 +9051,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.727791547109158</v>
+        <v>1.662809595353963</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.033303905814404</v>
@@ -9200,7 +9140,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.723316851089582</v>
+        <v>1.661809478800292</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.899961225665288</v>
@@ -9289,7 +9229,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.701880602282146</v>
+        <v>1.640913242596935</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.952280905097133</v>
@@ -9575,7 +9515,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.752069903778079</v>
+        <v>1.704619627713168</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.7068926348753</v>
@@ -9664,7 +9604,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.768607350061521</v>
+        <v>1.698072397605231</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.498109645855394</v>
@@ -9753,7 +9693,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.79059912434387</v>
+        <v>1.696086215695767</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.508777670176004</v>
@@ -9842,7 +9782,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.793287878130121</v>
+        <v>1.707636302422662</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.043475533340223</v>
@@ -9931,7 +9871,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.790221676374721</v>
+        <v>1.698325175948269</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.348562552608321</v>
@@ -10020,7 +9960,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.787593372013335</v>
+        <v>1.698693692559875</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.875591460666721</v>
@@ -10109,7 +10049,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.782306810098355</v>
+        <v>1.705441373819809</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.180260847488257</v>
@@ -10198,7 +10138,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.778578693239974</v>
+        <v>1.709064587523471</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.745968338648376</v>
@@ -10287,7 +10227,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.787758112480323</v>
+        <v>1.713019348402995</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.64359413037875</v>
@@ -10376,7 +10316,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.785221608192149</v>
+        <v>1.70890524182214</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.520173511411035</v>
@@ -10465,7 +10405,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.788696170256493</v>
+        <v>1.712638248854487</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.544479623774952</v>
@@ -10554,7 +10494,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.79019052240792</v>
+        <v>1.716866297918969</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.757825650716872</v>
@@ -10643,7 +10583,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.792658313213199</v>
+        <v>1.718275778859994</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.340600796127299</v>
@@ -10732,7 +10672,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.790789881556972</v>
+        <v>1.714667053735255</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.584861434265743</v>
@@ -10821,7 +10761,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.798927405847498</v>
+        <v>1.725679550566604</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.420101313349973</v>
@@ -10910,7 +10850,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.80521927746152</v>
+        <v>1.739140558331644</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.752281258560642</v>
@@ -10999,7 +10939,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.799992669870318</v>
+        <v>1.73956205506841</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.674917611340466</v>
@@ -11088,7 +11028,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.784052584498073</v>
+        <v>1.727486389411734</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.756472775020022</v>
@@ -11177,7 +11117,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.784006183403294</v>
+        <v>1.723897557670611</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.568100287541583</v>
@@ -11266,7 +11206,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.784938265150459</v>
+        <v>1.733891507739069</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.53906591421812</v>
@@ -11355,7 +11295,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.781877892582797</v>
+        <v>1.736131113008138</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.750353847018665</v>
@@ -11444,7 +11384,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.784945534671779</v>
+        <v>1.736122038096887</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.907847252228567</v>
@@ -11533,7 +11473,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.784078449098414</v>
+        <v>1.733085049689641</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.620404696944246</v>
@@ -11622,7 +11562,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.778081881308253</v>
+        <v>1.740313834706997</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.481446761931931</v>
@@ -11711,7 +11651,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.774192297578774</v>
+        <v>1.740519107784703</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.660159627127583</v>
@@ -11800,7 +11740,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.77145899307653</v>
+        <v>1.742614959742607</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.565434866271378</v>
@@ -11889,7 +11829,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.769213973675084</v>
+        <v>1.736326609667285</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.278944363538267</v>
@@ -11978,7 +11918,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.765717624844377</v>
+        <v>1.734902496201213</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.63861936884555</v>
@@ -12067,7 +12007,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.770121589135608</v>
+        <v>1.738911974118768</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.720936193595796</v>
@@ -12156,7 +12096,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.762019825928418</v>
+        <v>1.731325196560657</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.371094055336589</v>
@@ -12245,7 +12185,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.755586790516475</v>
+        <v>1.726892133881015</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.477476917458666</v>
@@ -12334,7 +12274,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.759912877197656</v>
+        <v>1.719295945050125</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.286456458323266</v>
@@ -12423,7 +12363,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.767645768655341</v>
+        <v>1.722280859989862</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.311407295687701</v>
@@ -12512,7 +12452,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.76681921721145</v>
+        <v>1.720985072841716</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.463561754281537</v>
@@ -12601,7 +12541,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.764008188619654</v>
+        <v>1.717583228472017</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.479416334816034</v>
@@ -12690,7 +12630,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.759654883375045</v>
+        <v>1.709214037865482</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.404957530470845</v>
@@ -12779,7 +12719,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.759345531766763</v>
+        <v>1.705104991934917</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.59300889460969</v>
@@ -12868,7 +12808,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.770838887211442</v>
+        <v>1.71297359793586</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.320152810033125</v>
@@ -12957,7 +12897,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.769304848910715</v>
+        <v>1.696615319496635</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.788601381645575</v>
@@ -13046,7 +12986,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.779564933930579</v>
+        <v>1.705062007772642</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.928647576804676</v>
@@ -13135,7 +13075,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.77771192670742</v>
+        <v>1.698775280498415</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.641432888276372</v>
@@ -13224,7 +13164,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.776790159014503</v>
+        <v>1.70203201419677</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.338748954005454</v>
@@ -13313,7 +13253,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.774390376763427</v>
+        <v>1.701709313636947</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.355293488199413</v>
@@ -13402,7 +13342,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.778236914926235</v>
+        <v>1.709039655564562</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.50252537713736</v>
@@ -13491,7 +13431,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.78905204695467</v>
+        <v>1.715850197430365</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.432772424820388</v>
@@ -13580,7 +13520,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.793820083979314</v>
+        <v>1.724336195473692</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.821243449239263</v>
@@ -13669,7 +13609,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.796435555266476</v>
+        <v>1.740432013004727</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.143076930032776</v>
@@ -13758,7 +13698,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.794718294373995</v>
+        <v>1.743338201833651</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.749543019833605</v>
@@ -13847,7 +13787,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.788002616659377</v>
+        <v>1.747674893637754</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.860173531731445</v>
@@ -13936,7 +13876,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.779756441335464</v>
+        <v>1.750966412044242</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.457668806563409</v>
@@ -14025,7 +13965,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.786705071533252</v>
+        <v>1.762796992514571</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.777994449941241</v>
@@ -14114,7 +14054,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.791568407733756</v>
+        <v>1.767918391380571</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.659586506895907</v>
@@ -14203,7 +14143,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.780537752432555</v>
+        <v>1.758365306827566</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.468210920854794</v>
@@ -14489,7 +14429,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.743364134917323</v>
+        <v>1.646954723713898</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.158348427518656</v>
@@ -14578,7 +14518,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.734219510534996</v>
+        <v>1.632022504023785</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.784094168659115</v>
@@ -14667,7 +14607,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.717677282360378</v>
+        <v>1.595408683989235</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.846143008494872</v>
@@ -14756,7 +14696,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.717914206273758</v>
+        <v>1.60426200381644</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.762858853736079</v>
@@ -14845,7 +14785,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.712797556851166</v>
+        <v>1.596646151575389</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.84301080386119</v>
@@ -14934,7 +14874,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.71206945708773</v>
+        <v>1.596586228469505</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.454151095922038</v>
@@ -15023,7 +14963,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.705353347345723</v>
+        <v>1.594735974510705</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.784049623790248</v>
@@ -15112,7 +15052,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.701308479198246</v>
+        <v>1.599363361744098</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.432206486791648</v>
@@ -15201,7 +15141,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.709934869530597</v>
+        <v>1.610044839439867</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.653118345334066</v>
@@ -15290,7 +15230,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.707347927528099</v>
+        <v>1.602705882046288</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.666730068642443</v>
@@ -15379,7 +15319,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.719174021478329</v>
+        <v>1.604334146219889</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.673884247172293</v>
@@ -15468,7 +15408,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.722325442877989</v>
+        <v>1.602175199910741</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.896063493127566</v>
@@ -15557,7 +15497,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.731325798912113</v>
+        <v>1.611993631410789</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.478537717512185</v>
@@ -15646,7 +15586,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.73047095048115</v>
+        <v>1.609942846694472</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.662800729590531</v>
@@ -15735,7 +15675,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.732466915975939</v>
+        <v>1.609588161035183</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.665558297558675</v>
@@ -15824,7 +15764,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.732982089378624</v>
+        <v>1.613111198400266</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.80557961911691</v>
@@ -15913,7 +15853,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.725724554039436</v>
+        <v>1.60524548805406</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.587785514953355</v>
@@ -16002,7 +15942,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.730155895661675</v>
+        <v>1.606202532332385</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.851634946474761</v>
@@ -16091,7 +16031,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.727862179186985</v>
+        <v>1.585624097122858</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.923851134094075</v>
@@ -16180,7 +16120,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.729029847642299</v>
+        <v>1.590390344935993</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.718034458416384</v>
@@ -16269,7 +16209,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.722069159088025</v>
+        <v>1.592624414355269</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.855704614789707</v>
@@ -16358,7 +16298,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.730368551528751</v>
+        <v>1.598242383761141</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.104452607549142</v>
@@ -16447,7 +16387,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.731774734857902</v>
+        <v>1.596434477363614</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.592451078511401</v>
@@ -16536,7 +16476,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.727674643046579</v>
+        <v>1.598060390347232</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.709086913807365</v>
@@ -16625,7 +16565,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.725591360123473</v>
+        <v>1.600398735091451</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.698681030173851</v>
@@ -16714,7 +16654,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.724349931536266</v>
+        <v>1.603697571894269</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.825440427598175</v>
@@ -16803,7 +16743,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.722205786358125</v>
+        <v>1.602982436448156</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.283785072082208</v>
@@ -16892,7 +16832,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.720327804037975</v>
+        <v>1.605889967554264</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.47421512293327</v>
@@ -16981,7 +16921,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.727834964680732</v>
+        <v>1.614405710720531</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.987431157406784</v>
@@ -17070,7 +17010,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.730760387196886</v>
+        <v>1.621058621646398</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.867738113227211</v>
@@ -17159,7 +17099,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.734985283331634</v>
+        <v>1.619766269612222</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.697701723386884</v>
@@ -17248,7 +17188,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.738181560179382</v>
+        <v>1.616433819250154</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.586284917391138</v>
@@ -17337,7 +17277,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.738776167936591</v>
+        <v>1.627349556631658</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.080013903999073</v>
@@ -17426,7 +17366,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.742265692321738</v>
+        <v>1.643488941563678</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.668112017912814</v>
@@ -17515,7 +17455,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.739226787771555</v>
+        <v>1.637034400280594</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.060690162402348</v>
@@ -17604,7 +17544,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.745477096951061</v>
+        <v>1.64176628927383</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.980661608430885</v>
@@ -17693,7 +17633,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.750031303613176</v>
+        <v>1.645827149816163</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.553750995483817</v>
@@ -17782,7 +17722,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.752832340731352</v>
+        <v>1.649746940992393</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.443114740694159</v>
@@ -17871,7 +17811,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.759122640181763</v>
+        <v>1.654113289359154</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.787766860270441</v>
@@ -17960,7 +17900,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.761187214278115</v>
+        <v>1.662195382412065</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.714916939855336</v>
@@ -18049,7 +17989,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.756455462934811</v>
+        <v>1.657849697388258</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.685041507645654</v>
@@ -18138,7 +18078,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.752590587917079</v>
+        <v>1.659743841892742</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.951449363583469</v>
@@ -18227,7 +18167,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.751458274137753</v>
+        <v>1.653341258501257</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.930082718789218</v>
@@ -18316,7 +18256,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.749598158620502</v>
+        <v>1.655960097282154</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.681741254785898</v>
@@ -18405,7 +18345,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.753231593642476</v>
+        <v>1.65507033615167</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.844669010123411</v>
@@ -18494,7 +18434,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.757279357329688</v>
+        <v>1.668911193519814</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.760635296927068</v>
@@ -18583,7 +18523,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.755124653755365</v>
+        <v>1.676523805825761</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.801023227496786</v>
@@ -18672,7 +18612,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.754650037130931</v>
+        <v>1.671792937816665</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.996704725052507</v>
@@ -18761,7 +18701,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.737269472467944</v>
+        <v>1.662516120558087</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.086738079175472</v>
@@ -18850,7 +18790,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.762324637521975</v>
+        <v>1.700360291924165</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.377186152234361</v>
@@ -18939,7 +18879,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.771228693231449</v>
+        <v>1.714317194271759</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.362919838716723</v>
@@ -19028,7 +18968,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.773141741819155</v>
+        <v>1.721372565391886</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.371441754407834</v>
@@ -19117,7 +19057,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.764961877481255</v>
+        <v>1.709436368749003</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.506818093386961</v>
@@ -19403,7 +19343,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.761108935493043</v>
+        <v>1.616036653689095</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.708378358609899</v>
@@ -19492,7 +19432,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.763361434511409</v>
+        <v>1.599463728903275</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.626226873206582</v>
@@ -19581,7 +19521,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.755352803472441</v>
+        <v>1.590888020715792</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.171241293224176</v>
@@ -19670,7 +19610,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.75809380205423</v>
+        <v>1.592684068889246</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.947793653051806</v>
@@ -19759,7 +19699,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.763638439274335</v>
+        <v>1.597134669405305</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.81236670165063</v>
@@ -19848,7 +19788,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.75933297660815</v>
+        <v>1.587410674926562</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.32798408301223</v>
@@ -19937,7 +19877,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.752571156299146</v>
+        <v>1.590296496048868</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.876294362774531</v>
@@ -20026,7 +19966,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.756934000821061</v>
+        <v>1.604104533866917</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.138796740118321</v>
@@ -20115,7 +20055,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.754590349822341</v>
+        <v>1.589946209074107</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.885016298616408</v>
@@ -20204,7 +20144,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.755195565660182</v>
+        <v>1.586488061739822</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.112392577561138</v>
@@ -20293,7 +20233,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.752583164972682</v>
+        <v>1.59561489914019</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.982805069963364</v>
@@ -20382,7 +20322,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.755956782258831</v>
+        <v>1.607104374156051</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.866166235233048</v>
@@ -20471,7 +20411,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.747369979016115</v>
+        <v>1.610245064476912</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.621684573265024</v>
@@ -20560,7 +20500,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.743491342086176</v>
+        <v>1.61095684542586</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.927713140648893</v>
@@ -20649,7 +20589,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.743102542104895</v>
+        <v>1.612429154467456</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.608314003067457</v>
@@ -20738,7 +20678,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.749883622060629</v>
+        <v>1.623949046598972</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.693098366160521</v>
@@ -20827,7 +20767,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.74968027065527</v>
+        <v>1.638333952254456</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.917785620086259</v>
@@ -20916,7 +20856,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.761445772667966</v>
+        <v>1.637402694653899</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.130839870383601</v>
@@ -21005,7 +20945,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.76163733105963</v>
+        <v>1.635902408153592</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.688977392087883</v>
@@ -21094,7 +21034,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.758838011308139</v>
+        <v>1.614778711023388</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.989162151781136</v>
@@ -21183,7 +21123,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.76423727588992</v>
+        <v>1.626210365605235</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.620124260466924</v>
@@ -21272,7 +21212,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.754254785433927</v>
+        <v>1.608904351427594</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.268233035098638</v>
@@ -21361,7 +21301,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.748005293199705</v>
+        <v>1.59145995777099</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.981214531217359</v>
@@ -21450,7 +21390,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.752909102971353</v>
+        <v>1.599965038574962</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.042658027003121</v>
@@ -21539,7 +21479,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.74720009696929</v>
+        <v>1.604619865493544</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.937697886948335</v>
@@ -21628,7 +21568,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.755046744845052</v>
+        <v>1.605489678720524</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.840444810787529</v>
@@ -21717,7 +21657,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.746802591265602</v>
+        <v>1.574052902645332</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.447528196883613</v>
@@ -21806,7 +21746,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.744844585600828</v>
+        <v>1.565531864008957</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.668919591413355</v>
@@ -21895,7 +21835,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.75065312148742</v>
+        <v>1.56976531609359</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.927545406883806</v>
@@ -21984,7 +21924,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.751014720694128</v>
+        <v>1.572285562992969</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.009226024274549</v>
@@ -22073,7 +22013,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.747108364925636</v>
+        <v>1.557239047630577</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.145893904275022</v>
@@ -22162,7 +22102,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.745284582196193</v>
+        <v>1.554731101588417</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.124688874454589</v>
@@ -22251,7 +22191,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.738016226340049</v>
+        <v>1.546827269680441</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.207096763165836</v>
@@ -22340,7 +22280,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.72234319878816</v>
+        <v>1.540635730523397</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.599402694273412</v>
@@ -22429,7 +22369,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.72203296108281</v>
+        <v>1.546819486599974</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.654921825140144</v>
@@ -22518,7 +22458,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.719960937122478</v>
+        <v>1.548350493436972</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.217197138277358</v>
@@ -22607,7 +22547,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.727119150739415</v>
+        <v>1.559398052796111</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.626328106748276</v>
@@ -22696,7 +22636,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.731937964814483</v>
+        <v>1.56848532483381</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.316720849549331</v>
@@ -22785,7 +22725,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.730220805341631</v>
+        <v>1.569359399292496</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.707310059632125</v>
@@ -22874,7 +22814,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.730343918177541</v>
+        <v>1.568718727208548</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.345976606318545</v>
@@ -22963,7 +22903,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.73098618935782</v>
+        <v>1.569189825449913</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.242217826929487</v>
@@ -23052,7 +22992,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.733849498210602</v>
+        <v>1.593138201841584</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.252869793597499</v>
@@ -23141,7 +23081,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.737016332467321</v>
+        <v>1.596793947584407</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.179171448967604</v>
@@ -23230,7 +23170,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.733354939522608</v>
+        <v>1.590339525997774</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.553450664227255</v>
@@ -23319,7 +23259,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.725906425658236</v>
+        <v>1.573619023704061</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.53755240617365</v>
@@ -23408,7 +23348,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.72262682664776</v>
+        <v>1.576694307154684</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.446922375000317</v>
@@ -23497,7 +23437,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.724109670875886</v>
+        <v>1.583557002386718</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.425604130879502</v>
@@ -23586,7 +23526,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.723680661856183</v>
+        <v>1.595075123655431</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.251025351660908</v>
@@ -23675,7 +23615,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.735349605714709</v>
+        <v>1.605326256897445</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.16658119589701</v>
@@ -23764,7 +23704,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.764776890373521</v>
+        <v>1.652091546647331</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.137247804380496</v>
@@ -23853,7 +23793,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.773574115349024</v>
+        <v>1.669551156699417</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.530760828693389</v>
@@ -23942,7 +23882,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.771625931586205</v>
+        <v>1.670743066136061</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.353911927013257</v>
@@ -24031,7 +23971,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.775627637780353</v>
+        <v>1.674805114037453</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.052003988739516</v>
@@ -24317,7 +24257,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.616344291886746</v>
+        <v>1.58302203881336</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.846783561514462</v>
@@ -24406,7 +24346,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.624903675778246</v>
+        <v>1.582524570084021</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.872784099725947</v>
@@ -24495,7 +24435,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.643096369349606</v>
+        <v>1.5953425722544</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.860560488913568</v>
@@ -24584,7 +24524,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.640024984817727</v>
+        <v>1.591524547198192</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.253779809210128</v>
@@ -24673,7 +24613,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.642408521438582</v>
+        <v>1.593847833877436</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.143966358307724</v>
@@ -24762,7 +24702,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.633843876756297</v>
+        <v>1.588335644294806</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.191595668542803</v>
@@ -24851,7 +24791,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.637091262439088</v>
+        <v>1.597179210120071</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.106213549735593</v>
@@ -24940,7 +24880,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.650872444142684</v>
+        <v>1.60685698270049</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.847820342447824</v>
@@ -25029,7 +24969,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.657291895389798</v>
+        <v>1.605703756919439</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.198248704897928</v>
@@ -25118,7 +25058,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.659876237974677</v>
+        <v>1.609936907015074</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.11526842967292</v>
@@ -25207,7 +25147,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.667284510237</v>
+        <v>1.616214951306207</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.208315495488828</v>
@@ -25296,7 +25236,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.675666278903285</v>
+        <v>1.625475216554013</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.0182530274234</v>
@@ -25385,7 +25325,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.65948180643422</v>
+        <v>1.617384587048357</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.017102041367231</v>
@@ -25474,7 +25414,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.658783411046246</v>
+        <v>1.610428744294024</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.390248440676942</v>
@@ -25563,7 +25503,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.668674296678482</v>
+        <v>1.614257609731082</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.22533214433277</v>
@@ -25652,7 +25592,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.669501162328456</v>
+        <v>1.620731526530153</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.042704332214251</v>
@@ -25741,7 +25681,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.678659411792427</v>
+        <v>1.621085433075594</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.322070907048024</v>
@@ -25830,7 +25770,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.686000955851543</v>
+        <v>1.623311511853035</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.884969497118324</v>
@@ -25919,7 +25859,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.690897908247631</v>
+        <v>1.624062907136578</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.298635423414069</v>
@@ -26008,7 +25948,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.688213183508841</v>
+        <v>1.614760392105821</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.026628631744966</v>
@@ -26097,7 +26037,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.693100147769433</v>
+        <v>1.620763084448435</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.06450689836505</v>
@@ -26186,7 +26126,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.68857779991687</v>
+        <v>1.616547660189818</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.044722426139797</v>
@@ -26275,7 +26215,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.684211536796089</v>
+        <v>1.617799531299381</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.446159444002808</v>
@@ -26364,7 +26304,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.684214082576225</v>
+        <v>1.629151710064677</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.836279168323591</v>
@@ -26453,7 +26393,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.683728497001354</v>
+        <v>1.624856924361878</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.06379360539694</v>
@@ -26542,7 +26482,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.67361565884195</v>
+        <v>1.614143441411769</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.122342976209092</v>
@@ -26631,7 +26571,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.670544222103375</v>
+        <v>1.600270553069612</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.681387418575293</v>
@@ -26720,7 +26660,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.681885321024768</v>
+        <v>1.601184765680321</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.090325514363985</v>
@@ -26809,7 +26749,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.690511986550937</v>
+        <v>1.611032960702955</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.153672458895978</v>
@@ -26898,7 +26838,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.688335107313988</v>
+        <v>1.608671881039048</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.255035803894389</v>
@@ -26987,7 +26927,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.691739257510902</v>
+        <v>1.604094641199322</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.07753334784737</v>
@@ -27076,7 +27016,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.69921184491118</v>
+        <v>1.6098857756552</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.953476458868264</v>
@@ -27165,7 +27105,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.695475342499438</v>
+        <v>1.612182675435759</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.65765869717724</v>
@@ -27254,7 +27194,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.682963034222384</v>
+        <v>1.605859302215257</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.175276785962352</v>
@@ -27343,7 +27283,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.681534774875586</v>
+        <v>1.611230941290658</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.069708373226484</v>
@@ -27432,7 +27372,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.682950828525813</v>
+        <v>1.604713541467593</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.921546762188979</v>
@@ -27521,7 +27461,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.702477924065422</v>
+        <v>1.611583946439366</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.014959132272176</v>
@@ -27610,7 +27550,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.709979053743874</v>
+        <v>1.614672025115078</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.881795714949771</v>
@@ -27699,7 +27639,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.723107300690694</v>
+        <v>1.614325246994107</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.172671494298209</v>
@@ -27788,7 +27728,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.726011158772756</v>
+        <v>1.621049523873293</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.862159087716153</v>
@@ -27877,7 +27817,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.728010094241689</v>
+        <v>1.623643937567481</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.317891260711392</v>
@@ -27966,7 +27906,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.726026088176963</v>
+        <v>1.630174596689649</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.215331985463882</v>
@@ -28055,7 +27995,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.735215113547074</v>
+        <v>1.645723228976487</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.1655979165438</v>
@@ -28144,7 +28084,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.745629740483432</v>
+        <v>1.652978043570372</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.203039008677703</v>
@@ -28233,7 +28173,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.751152366006003</v>
+        <v>1.655993137117678</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.626768542568409</v>
@@ -28322,7 +28262,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.748021994536201</v>
+        <v>1.653768488164304</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.466367785642677</v>
@@ -28411,7 +28351,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.744147395991227</v>
+        <v>1.655814289670765</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.130129047207737</v>
@@ -28500,7 +28440,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.746137526865533</v>
+        <v>1.655107914366878</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.564382448404394</v>
@@ -28589,7 +28529,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.726711240813142</v>
+        <v>1.643825748736477</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.757968849502755</v>
@@ -28678,7 +28618,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.68590602101516</v>
+        <v>1.627986766780537</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.595616519077843</v>
@@ -28767,7 +28707,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.691084643605798</v>
+        <v>1.645528522796155</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.585559928838577</v>
@@ -28856,7 +28796,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.689511246754701</v>
+        <v>1.644328488540462</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.625211077318597</v>
@@ -28945,7 +28885,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.680363462152239</v>
+        <v>1.637947904523911</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.59307022431609</v>
@@ -29231,7 +29171,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.609463951109583</v>
+        <v>1.547720012094148</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.822410897740539</v>
@@ -29320,7 +29260,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.62065295655859</v>
+        <v>1.537366928543292</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.762846308209287</v>
@@ -29409,7 +29349,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.625097031817418</v>
+        <v>1.531015126780694</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.677397040322388</v>
@@ -29498,7 +29438,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.616272713694187</v>
+        <v>1.522806608896289</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.711638691925777</v>
@@ -29587,7 +29527,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.622334146780378</v>
+        <v>1.523705273687888</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.924428158255349</v>
@@ -29676,7 +29616,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.611378604386959</v>
+        <v>1.513410385264895</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.766467580441728</v>
@@ -29765,7 +29705,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.630545275695174</v>
+        <v>1.537676578751934</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.834787135629594</v>
@@ -29854,7 +29794,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.628792218610177</v>
+        <v>1.540295171530334</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.841535242007649</v>
@@ -29943,7 +29883,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.630664684059475</v>
+        <v>1.531614820713785</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.995002234306505</v>
@@ -30032,7 +29972,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.637834119748743</v>
+        <v>1.527283247809529</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.31437868443005</v>
@@ -30121,7 +30061,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.64761382515187</v>
+        <v>1.533733192982792</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.091116125957457</v>
@@ -30210,7 +30150,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.647192869422046</v>
+        <v>1.53410849877865</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.892762055711285</v>
@@ -30299,7 +30239,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.637792525766239</v>
+        <v>1.527582521649898</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.226601980853407</v>
@@ -30388,7 +30328,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.635301367015086</v>
+        <v>1.523115531735867</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.189782318364315</v>
@@ -30477,7 +30417,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.641738142738895</v>
+        <v>1.521198831556956</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.146287394301408</v>
@@ -30566,7 +30506,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.64608514368529</v>
+        <v>1.532549177920903</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.007687651286753</v>
@@ -30655,7 +30595,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.639979717328663</v>
+        <v>1.533984214398169</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.271488615926848</v>
@@ -30744,7 +30684,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.643844623952485</v>
+        <v>1.531634920900574</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.841733567182255</v>
@@ -30833,7 +30773,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.647547117758495</v>
+        <v>1.530226927316093</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.921778400916358</v>
@@ -30922,7 +30862,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.647517491838125</v>
+        <v>1.527030700348014</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.830696372810729</v>
@@ -31011,7 +30951,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.648382127792806</v>
+        <v>1.533228744987649</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.066785317032698</v>
@@ -31100,7 +31040,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.633248868068032</v>
+        <v>1.525092200806591</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.973207849402212</v>
@@ -31189,7 +31129,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.632181308679906</v>
+        <v>1.526959632786172</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.075096336317302</v>
@@ -31278,7 +31218,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.626351734114356</v>
+        <v>1.53858083497695</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.990738356408288</v>
@@ -31367,7 +31307,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.628389065748854</v>
+        <v>1.54769332849798</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.123366327800795</v>
@@ -31456,7 +31396,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.626155685111325</v>
+        <v>1.542548489655802</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.936045346021436</v>
@@ -31545,7 +31485,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.620476311064719</v>
+        <v>1.523632147267325</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.091562149774293</v>
@@ -31634,7 +31574,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.630468092070602</v>
+        <v>1.528305449522585</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.08013762084406</v>
@@ -31723,7 +31663,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.647063641076322</v>
+        <v>1.541433990938205</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.248006305326269</v>
@@ -31812,7 +31752,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.649565009260285</v>
+        <v>1.540169108968133</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.171260210519445</v>
@@ -31901,7 +31841,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.6470963717272</v>
+        <v>1.530558870200929</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.386650124310723</v>
@@ -31990,7 +31930,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.658468402851605</v>
+        <v>1.534058497109168</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.977609342888679</v>
@@ -32079,7 +32019,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.652022563755314</v>
+        <v>1.530432496948556</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.262529418483731</v>
@@ -32168,7 +32108,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.642592170605446</v>
+        <v>1.530277221297617</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.21182733197852</v>
@@ -32257,7 +32197,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.643953478632965</v>
+        <v>1.538416445175219</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.997586286465159</v>
@@ -32346,7 +32286,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.64778397430381</v>
+        <v>1.534628587941023</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.950981091923301</v>
@@ -32435,7 +32375,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.667615833956039</v>
+        <v>1.544533851835944</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.794366953555396</v>
@@ -32524,7 +32464,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.677075334072313</v>
+        <v>1.550791805212288</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.657471618588998</v>
@@ -32613,7 +32553,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.693443050515599</v>
+        <v>1.554409403107929</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.981313913349804</v>
@@ -32702,7 +32642,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.692844941337502</v>
+        <v>1.556672839426996</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.817345656213525</v>
@@ -32791,7 +32731,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.701740228467465</v>
+        <v>1.571113329846217</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.926990034797235</v>
@@ -32880,7 +32820,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.697983910734717</v>
+        <v>1.582472705747371</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.981111302505613</v>
@@ -32969,7 +32909,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.707577600006618</v>
+        <v>1.590865641231945</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.090538860800748</v>
@@ -33058,7 +32998,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.70936782483914</v>
+        <v>1.591504988573888</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.135302648599924</v>
@@ -33147,7 +33087,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.704258152907579</v>
+        <v>1.58612539800813</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.192418224465628</v>
@@ -33236,7 +33176,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.705365275002804</v>
+        <v>1.589759949256148</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.094653230143392</v>
@@ -33325,7 +33265,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.698908804143499</v>
+        <v>1.589996832991024</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.118536528272262</v>
@@ -33414,7 +33354,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.705565571609647</v>
+        <v>1.592403478473816</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.799480119668309</v>
@@ -33503,7 +33443,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.686687425924095</v>
+        <v>1.580970720012613</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.767484193441061</v>
@@ -33592,7 +33532,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.695765417733737</v>
+        <v>1.598059404303005</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.990060317799285</v>
@@ -33681,7 +33621,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.705636801804043</v>
+        <v>1.615381996138516</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.014032825446209</v>
@@ -33770,7 +33710,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.706030031586172</v>
+        <v>1.615244419455164</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.940783538396253</v>
@@ -33859,7 +33799,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.694343167107693</v>
+        <v>1.599337938866898</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.893900276674438</v>
